--- a/test-resources/data/test_sayhello.xlsx
+++ b/test-resources/data/test_sayhello.xlsx
@@ -137,7 +137,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,14 +152,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +165,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
@@ -178,44 +230,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -235,46 +249,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,67 +289,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,115 +469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +480,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,24 +524,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,8 +536,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -549,41 +560,30 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,130 +601,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1056,7 +1056,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1234,7 +1234,7 @@
         <v>30</v>
       </c>
       <c r="D2" t="n" s="2">
-        <v>44895.91977706018</v>
+        <v>44895.93967712963</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>31</v>
@@ -1260,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="D3" t="n" s="2">
-        <v>44895.920017766206</v>
+        <v>44895.93992170139</v>
       </c>
       <c r="E3" t="s" s="2">
         <v>31</v>
@@ -1286,7 +1286,7 @@
         <v>30</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>44895.92026071759</v>
+        <v>44895.93997554398</v>
       </c>
       <c r="E4" t="s" s="2">
         <v>31</v>
@@ -1312,7 +1312,7 @@
         <v>30</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>44895.92050165509</v>
+        <v>44895.940219108794</v>
       </c>
       <c r="E5" t="s" s="2">
         <v>31</v>
@@ -1338,7 +1338,7 @@
         <v>30</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>44895.92074212963</v>
+        <v>44895.94027535879</v>
       </c>
       <c r="E6" t="s" s="2">
         <v>31</v>
@@ -1364,7 +1364,7 @@
         <v>30</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>44895.92098949074</v>
+        <v>44895.940518379626</v>
       </c>
       <c r="E7" t="s" s="2">
         <v>31</v>

--- a/test-resources/data/test_sayhello.xlsx
+++ b/test-resources/data/test_sayhello.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12510"/>
+    <workbookView windowWidth="24345" windowHeight="12510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="testSayHello_data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Id</t>
   </si>
@@ -102,30 +102,17 @@
   </si>
   <si>
     <t>Screenshot</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Test say hello (authenticate) function</t>
-  </si>
-  <si>
-    <t>multipleSayHello</t>
-  </si>
-  <si>
-    <t>SUCCESS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="hh:mm:ss dd-mm-yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -137,6 +124,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -144,14 +138,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,37 +160,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -204,7 +168,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,8 +189,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,15 +245,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,187 +276,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,30 +467,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,10 +487,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -538,6 +499,21 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,15 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,18 +547,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,139 +588,136 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true" applyNumberFormat="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1055,14 +1039,14 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="22.2857142857143"/>
-    <col min="4" max="4" customWidth="true" width="26.4285714285714"/>
+    <col min="3" max="3" width="22.2857142857143" customWidth="1"/>
+    <col min="4" max="4" width="26.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1172,20 +1156,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.0"/>
-    <col min="3" max="3" customWidth="true" width="29.0"/>
-    <col min="4" max="4" customWidth="true" width="25.0"/>
-    <col min="6" max="6" customWidth="true" width="16.4285714285714"/>
-    <col min="7" max="7" customWidth="true" width="18.2857142857143"/>
-    <col min="9" max="9" customWidth="true" width="21.0"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.4285714285714" customWidth="1"/>
+    <col min="7" max="7" width="18.2857142857143" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1221,162 +1205,6 @@
       </c>
       <c r="K1" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="2" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A2" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n" s="2">
-        <v>44895.93967712963</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A3" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n" s="2">
-        <v>44895.93992170139</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A4" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n" s="2">
-        <v>44895.93997554398</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n" s="2">
-        <v>44895.940219108794</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n" s="2">
-        <v>44895.94027535879</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" ht="60.0" customHeight="true" s="2" customFormat="true">
-      <c r="A7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="D7" t="n" s="2">
-        <v>44895.940518379626</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
